--- a/The Real Numbers and Real Analysis.xlsx
+++ b/The Real Numbers and Real Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jflop\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeX\Books\Bloch, Ethan\The Real Numbers and Real Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F1CCCD-60AD-46E8-98F4-29B22498F0CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29151336-9AEB-4047-A3E0-2E8990E9DDB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3691271-D25A-4B6E-8B5A-C1BCC6EBE057}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
   <si>
     <t>Chapter 1</t>
   </si>
@@ -162,17 +162,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -503,8 +493,8 @@
   <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P87" sqref="P87"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,6 +801,9 @@
       <c r="M9" s="1">
         <v>7</v>
       </c>
+      <c r="N9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="O9" s="1">
         <v>7</v>
       </c>
@@ -2396,7 +2389,7 @@
         <v>Chapter 1</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f t="shared" ref="C93:T93" si="0">D$1</f>
+        <f t="shared" ref="D93:T93" si="0">D$1</f>
         <v>Chapter 2</v>
       </c>
       <c r="F93" s="1" t="str">
@@ -2438,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" ref="C94:T94" si="1">COUNTIF(D3:D90,"Started")</f>
+        <f t="shared" ref="D94:T94" si="1">COUNTIF(D3:D90,"Started")</f>
         <v>0</v>
       </c>
       <c r="F94" s="1">
@@ -2487,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" ref="C95:T95" si="2">COUNTIF(D3:D90,"Finished")</f>
+        <f t="shared" ref="D95:T95" si="2">COUNTIF(D3:D90,"Finished")</f>
         <v>0</v>
       </c>
       <c r="F95" s="1">
@@ -2508,7 +2501,7 @@
       </c>
       <c r="N95" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95" s="1">
         <f t="shared" si="2"/>
@@ -2527,7 +2520,7 @@
       </c>
       <c r="V95" s="1">
         <f t="shared" ref="V95:V96" si="3">SUM(B95:T95)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="2:22" x14ac:dyDescent="0.25">
@@ -2536,7 +2529,7 @@
         <v>52</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" ref="C96:T96" si="4">COUNT(C$2:C$90)</f>
+        <f t="shared" ref="D96:T96" si="4">COUNT(C$2:C$90)</f>
         <v>77</v>
       </c>
       <c r="F96" s="1">
@@ -2586,7 +2579,7 @@
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2">
-        <f t="shared" ref="C97:T97" si="5">D95/D96</f>
+        <f t="shared" ref="D97:T97" si="5">D95/D96</f>
         <v>0</v>
       </c>
       <c r="E97" s="2"/>
@@ -2612,7 +2605,7 @@
       <c r="M97" s="2"/>
       <c r="N97" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" s="2">
@@ -2634,7 +2627,7 @@
       </c>
       <c r="V97" s="2">
         <f>V95/V96</f>
-        <v>1.9920318725099601E-3</v>
+        <v>3.9840637450199202E-3</v>
       </c>
     </row>
   </sheetData>
